--- a/result/next_forcast_result.xlsx
+++ b/result/next_forcast_result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>no</t>
   </si>
@@ -43,87 +44,83 @@
     <t>last_pred_ratio</t>
   </si>
   <si>
-    <t>2018.09.14</t>
+    <t>2018.09.18</t>
   </si>
   <si>
     <t>010140</t>
   </si>
   <si>
+    <t>삼성중공업</t>
+  </si>
+  <si>
+    <t>-0.18%</t>
+  </si>
+  <si>
     <t>000270</t>
   </si>
   <si>
+    <t>기아자동차</t>
+  </si>
+  <si>
+    <t>-0.71%</t>
+  </si>
+  <si>
     <t>063080</t>
   </si>
   <si>
+    <t>게임빌</t>
+  </si>
+  <si>
+    <t>0.45%</t>
+  </si>
+  <si>
     <t>085370</t>
   </si>
   <si>
+    <t>루트로닉</t>
+  </si>
+  <si>
+    <t>0.49%</t>
+  </si>
+  <si>
     <t>003520</t>
   </si>
   <si>
+    <t>영진약품</t>
+  </si>
+  <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
     <t>045390</t>
   </si>
   <si>
-    <t>삼성중공업</t>
-  </si>
-  <si>
-    <t>기아자동차</t>
-  </si>
-  <si>
-    <t>게임빌</t>
-  </si>
-  <si>
-    <t>루트로닉</t>
-  </si>
-  <si>
-    <t>영진약품</t>
-  </si>
-  <si>
     <t>대아티아이</t>
   </si>
   <si>
-    <t>0.49%</t>
-  </si>
-  <si>
-    <t>-0.43%</t>
-  </si>
-  <si>
-    <t>-0.11%</t>
-  </si>
-  <si>
-    <t>0.99%</t>
-  </si>
-  <si>
-    <t>-0.45%</t>
-  </si>
-  <si>
-    <t>-1.45%</t>
+    <t>-0.28%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,35 +135,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -454,12 +442,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -491,7 +485,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -501,170 +495,170 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>0.007807300426065922</v>
-      </c>
-      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.007846876978874207</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8070</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8055.798828125</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2">
-        <v>7880</v>
-      </c>
-      <c r="H2">
-        <v>7918.630859375</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0.009126867167651653</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>34050</v>
-      </c>
-      <c r="H3">
-        <v>33902.48828125</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00908760167658329</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34253.68359375</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01129163149744272</v>
+      </c>
+      <c r="F4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G4" t="n">
+        <v>53600</v>
+      </c>
+      <c r="H4" t="n">
+        <v>53842.58203125</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0.01090935058891773</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>53400</v>
-      </c>
-      <c r="H4">
-        <v>53339.80078125</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0.01454556547105312</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>13700</v>
-      </c>
-      <c r="H5">
-        <v>13836.2744140625</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0144185796380043</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13450</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13516.5693359375</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.019172303378582</v>
+      </c>
+      <c r="F6" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0.01919431611895561</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>8040</v>
-      </c>
-      <c r="H6">
-        <v>8003.998046875</v>
+      <c r="G6" t="n">
+        <v>7920</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7889.10693359375</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0.01627330482006073</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>9440</v>
-      </c>
-      <c r="H7">
-        <v>9303.322265625</v>
+        <v>26</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01604766026139259</v>
+      </c>
+      <c r="F7" t="n">
+        <v>87</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9180</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9154.0390625</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/result/next_forcast_result.xlsx
+++ b/result/next_forcast_result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>no</t>
   </si>
@@ -44,7 +44,7 @@
     <t>last_pred_ratio</t>
   </si>
   <si>
-    <t>2018.09.18</t>
+    <t>2018.09.19</t>
   </si>
   <si>
     <t>010140</t>
@@ -53,7 +53,7 @@
     <t>삼성중공업</t>
   </si>
   <si>
-    <t>-0.18%</t>
+    <t>1.07%</t>
   </si>
   <si>
     <t>000270</t>
@@ -62,7 +62,7 @@
     <t>기아자동차</t>
   </si>
   <si>
-    <t>-0.71%</t>
+    <t>-0.44%</t>
   </si>
   <si>
     <t>063080</t>
@@ -71,7 +71,7 @@
     <t>게임빌</t>
   </si>
   <si>
-    <t>0.45%</t>
+    <t>0.18%</t>
   </si>
   <si>
     <t>085370</t>
@@ -80,7 +80,7 @@
     <t>루트로닉</t>
   </si>
   <si>
-    <t>0.49%</t>
+    <t>1.01%</t>
   </si>
   <si>
     <t>003520</t>
@@ -89,7 +89,7 @@
     <t>영진약품</t>
   </si>
   <si>
-    <t>-0.39%</t>
+    <t>-0.06%</t>
   </si>
   <si>
     <t>045390</t>
@@ -98,7 +98,16 @@
     <t>대아티아이</t>
   </si>
   <si>
-    <t>-0.28%</t>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,16 +507,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007846876978874207</v>
+        <v>0.007776739541441202</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>8070</v>
+        <v>7870</v>
       </c>
       <c r="H2" t="n">
-        <v>8055.798828125</v>
+        <v>7954.205078125</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -527,16 +536,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00908760167658329</v>
+        <v>0.008818800561130047</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>34500</v>
+        <v>34550</v>
       </c>
       <c r="H3" t="n">
-        <v>34253.68359375</v>
+        <v>34396.8203125</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -556,16 +565,16 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01129163149744272</v>
+        <v>0.01102833170443773</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>53600</v>
+        <v>53400</v>
       </c>
       <c r="H4" t="n">
-        <v>53842.58203125</v>
+        <v>53493.49609375</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -585,16 +594,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0144185796380043</v>
+        <v>0.0143913896754384</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>13450</v>
       </c>
       <c r="H5" t="n">
-        <v>13516.5693359375</v>
+        <v>13585.8740234375</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -614,16 +623,16 @@
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.019172303378582</v>
+        <v>0.01942821964621544</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>7920</v>
+        <v>7730</v>
       </c>
       <c r="H6" t="n">
-        <v>7889.10693359375</v>
+        <v>7725.52783203125</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -643,19 +652,48 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01604766026139259</v>
+        <v>0.01578819192945957</v>
       </c>
       <c r="F7" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>9180</v>
+        <v>9120</v>
       </c>
       <c r="H7" t="n">
-        <v>9154.0390625</v>
+        <v>9226.76953125</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02949867211282253</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="n">
+        <v>49150</v>
+      </c>
+      <c r="H8" t="n">
+        <v>48866.3203125</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
